--- a/17_TwigFarm/Gcon_Diff/한국어 관용 분석/google_papago_analyze/google_papago_compare_01271351_.xlsx
+++ b/17_TwigFarm/Gcon_Diff/한국어 관용 분석/google_papago_analyze/google_papago_compare_01271351_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/GIT/TIL/17_TwigFarm/Gcon_Diff/한국어 관용 분석/google_papago_analyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C6A56-6D89-E54A-9B3D-E568D87AE5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4789FAB0-0786-DC46-9F29-9FBDD7F006C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2506,7 +2506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2525,8 +2525,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2534,17 +2540,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2885,11 +2913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="319" zoomScaleNormal="319" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3002,46 +3029,46 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1"/>
@@ -3228,46 +3255,46 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="1"/>
@@ -3334,23 +3361,23 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G22" s="1"/>
@@ -3384,13 +3411,13 @@
       <c r="B24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3597,23 +3624,23 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G35" s="1"/>
@@ -3680,23 +3707,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="5" t="s">
         <v>189</v>
       </c>
       <c r="G39" s="1"/>
@@ -3843,23 +3870,23 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="5" t="s">
         <v>227</v>
       </c>
       <c r="G47" s="1"/>
@@ -3886,23 +3913,23 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="5" t="s">
         <v>236</v>
       </c>
       <c r="G49" s="1"/>
@@ -4036,13 +4063,13 @@
       <c r="B56" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>272</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -4376,13 +4403,13 @@
       <c r="B73" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>353</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -4396,13 +4423,13 @@
       <c r="B74" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>358</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -4549,23 +4576,23 @@
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="5" t="s">
         <v>399</v>
       </c>
       <c r="G82" s="1"/>
@@ -4732,23 +4759,23 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G91" s="1"/>
@@ -4775,23 +4802,23 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="5" t="s">
         <v>442</v>
       </c>
       <c r="G93" s="1"/>
@@ -4858,23 +4885,23 @@
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="5" t="s">
         <v>464</v>
       </c>
       <c r="G97" s="1"/>
@@ -4981,23 +5008,23 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="5" t="s">
         <v>494</v>
       </c>
       <c r="G103" s="1"/>
@@ -5104,23 +5131,23 @@
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="5" t="s">
         <v>521</v>
       </c>
       <c r="G109" s="1"/>
@@ -5147,23 +5174,23 @@
         <v>528</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="5" t="s">
         <v>530</v>
       </c>
       <c r="G111" s="1"/>
@@ -5230,23 +5257,23 @@
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="5" t="s">
         <v>552</v>
       </c>
       <c r="G115" s="1"/>
@@ -5553,23 +5580,23 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="5" t="s">
         <v>442</v>
       </c>
       <c r="G131" s="1"/>
@@ -5683,13 +5710,13 @@
       <c r="B137" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="3" t="s">
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>653</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -5723,13 +5750,13 @@
       <c r="B139" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="D139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>663</v>
       </c>
       <c r="F139" s="3" t="s">
@@ -5956,23 +5983,23 @@
         <v>719</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="5" t="s">
         <v>721</v>
       </c>
       <c r="G151" s="1"/>
@@ -6039,23 +6066,23 @@
         <v>738</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="5" t="s">
         <v>740</v>
       </c>
       <c r="G155" s="1"/>
@@ -6082,23 +6109,23 @@
         <v>747</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="5" t="s">
         <v>752</v>
       </c>
       <c r="G157" s="1"/>
@@ -6125,23 +6152,23 @@
         <v>757</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="5" t="s">
         <v>759</v>
       </c>
       <c r="G159" s="1"/>
@@ -6255,13 +6282,13 @@
       <c r="B165" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="3" t="s">
+      <c r="D165" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>790</v>
       </c>
       <c r="F165" s="3" t="s">
@@ -6288,46 +6315,46 @@
         <v>796</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="5" t="s">
         <v>798</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="5" t="s">
         <v>802</v>
       </c>
       <c r="G168" s="1"/>
@@ -6415,13 +6442,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F172" xr:uid="{E120BC9E-9194-F546-9C11-2B888C1E066C}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="diffs"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F172" xr:uid="{E120BC9E-9194-F546-9C11-2B888C1E066C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>